--- a/targets/heart.xlsx
+++ b/targets/heart.xlsx
@@ -465,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.718</v>
+        <v>0.7658</v>
       </c>
       <c r="C2">
-        <v>0.0998</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -476,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.7628</v>
+        <v>0.7972</v>
       </c>
       <c r="C3">
-        <v>0.0598</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -487,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.8285</v>
+        <v>0.8614000000000001</v>
       </c>
       <c r="C4">
-        <v>0.0979</v>
+        <v>0.06560000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -498,10 +498,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.6714</v>
+        <v>0.7048</v>
       </c>
       <c r="C5">
-        <v>0.1891</v>
+        <v>0.1129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -509,10 +509,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5571</v>
+        <v>0.6178</v>
       </c>
       <c r="C6">
-        <v>0.098</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -520,10 +520,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.5298</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="C7">
-        <v>0.1144</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -531,10 +531,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.7628</v>
+        <v>0.7972</v>
       </c>
       <c r="C8">
-        <v>0.0598</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -542,10 +542,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>15.8</v>
+        <v>22.8</v>
       </c>
       <c r="C9">
-        <v>18.0727</v>
+        <v>8.257</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -553,10 +553,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>42.9</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>31.4482</v>
+        <v>8.9443</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -564,10 +564,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>31.3</v>
+        <v>43.2</v>
       </c>
       <c r="C11">
-        <v>29.665</v>
+        <v>10.8095</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="C12">
-        <v>9.1561</v>
+        <v>3.3483</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -586,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>24.4</v>
+        <v>11.3</v>
       </c>
       <c r="C13">
-        <v>35.7218</v>
+        <v>4.2701</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -597,10 +597,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="C14">
-        <v>22.5389</v>
+        <v>7.306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -608,10 +608,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>13.9</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>18.2358</v>
+        <v>3.3333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -619,10 +619,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10.5</v>
+        <v>3.3</v>
       </c>
       <c r="C16">
-        <v>18.9341</v>
+        <v>2.9833</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -630,10 +630,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.8081</v>
+        <v>0.7053</v>
       </c>
       <c r="C17">
-        <v>0.2418</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -641,10 +641,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.315</v>
+        <v>0.3929</v>
       </c>
       <c r="C18">
-        <v>0.3301</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -652,10 +652,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.7832</v>
+        <v>0.6836</v>
       </c>
       <c r="C19">
-        <v>0.2469</v>
+        <v>0.08409999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -663,10 +663,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.3174</v>
+        <v>0.4612</v>
       </c>
       <c r="C20">
-        <v>0.3113</v>
+        <v>0.1309</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -685,10 +685,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.0689</v>
+        <v>-0.6708</v>
       </c>
       <c r="C22">
-        <v>0.2115</v>
+        <v>0.1731</v>
       </c>
     </row>
     <row r="23" spans="1:3">
